--- a/TechStack.xlsx
+++ b/TechStack.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960D3DE7-70FA-4397-9AB8-F606B8845380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7115310-F41C-4678-BB2C-E60AC63840E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="979" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="979" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About Author" sheetId="19" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="Learning Material" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6938,7 +6937,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -8384,7 +8383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADC389A-9F0E-41B8-8C1E-C0071BC3B5C1}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -8448,8 +8447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -9905,7 +9904,7 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -10483,7 +10482,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -10722,8 +10721,8 @@
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11438,7 +11437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8385B5A8-9213-481B-8B93-B8B0D707D64F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/TechStack.xlsx
+++ b/TechStack.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7115310-F41C-4678-BB2C-E60AC63840E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5405CF-4393-4340-979B-B406BB97D867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="979" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="979" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About Author" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="683">
   <si>
     <t>Topic</t>
   </si>
@@ -5646,6 +5646,61 @@
 </t>
   </si>
   <si>
+    <t>Describe Some of the Functional Interfaces in the Standard Library.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Rajendra</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Rajendra.lella@live.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one to one (Every Citizen has a Unique Aadhaar)/(Every Tax payer has a Unique PAN card)
+one to many (Author to Books)
+many to one (Books to Author)
+many to many (Employee to Projects) an Employee can work in Many Projects/Modules, Like wise a Project has multiple employees.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>There are a lot of functional interfaces in the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> java.util.function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> package, the more common ones include but not limited to:
+Function – it takes one argument and returns a result
+Consumer – it takes one argument and returns no result (represents a side effect)
+Supplier – it takes not argument and returns a result
+Predicate – it takes one argument and returns a boolean(Usually it is applied while filtering the steam of objects)
+BiFunction – it takes two arguments and returns a result
+BinaryOperator – it is similar to a BiFunction, taking two arguments and returning a result. The two arguments and the result are all of the same types
+UnaryOperator – it is similar to a Function, taking a single argument and returning a result of the same type
+For more on functional interfaces, see the article “Functional Interfaces in Java 8”.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>a)</t>
     </r>
@@ -5721,7 +5776,7 @@
 list.stream().filter().collect(collector.toList());
 list.stream().sorted().collect(collector.toList());
 Stream is a process of creation of the stream, perform operations on the stream and Consume the result
-d) In java 8 we can define the methods in the interfaces,
+d) In java 8 we can define the methods in the interfaces, they were introduced to provide backward compatibility.(i.e) it will not affect the existing code which was written in java 6/java 7
 we can define </t>
     </r>
     <r>
@@ -5887,59 +5942,28 @@
     </r>
   </si>
   <si>
-    <t>Describe Some of the Functional Interfaces in the Standard Library.</t>
-  </si>
-  <si>
-    <r>
-      <t>There are a lot of functional interfaces in the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> java.util.function</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> package, the more common ones include but not limited to:
-Function – it takes one argument and returns a result
-Consumer – it takes one argument and returns no result (represents a side effect)
-Supplier – it takes not argument and returns a result
-Predicate – it takes one argument and returns a boolean
-BiFunction – it takes two arguments and returns a result
-BinaryOperator – it is similar to a BiFunction, taking two arguments and returning a result. The two arguments and the result are all of the same types
-UnaryOperator – it is similar to a Function, taking a single argument and returning a result of the same type
-For more on functional interfaces, see the article “Functional Interfaces in Java 8”.</t>
-    </r>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Rajendra</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Rajendra.lella@live.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one to one (Every Citizen has a Unique Aadhaar)/(Every Tax payer has a Unique PAN card)
-one to many (Author to Books)
-many to one (Books to Author)
-many to many (Employee to Projects) an Employee can work in Many Projects/Modules, Like wise a Project has multiple employees.
-</t>
+    <t>System Design interview questions</t>
+  </si>
+  <si>
+    <t>Parking Lot</t>
+  </si>
+  <si>
+    <t>JMS (Java Message Service) is an API that provides the facility to create, send and read messages. It provides loosely coupled, reliable and asynchronous communication. 
+JMS is also known as a messaging service.
+Messaging is a technique to communicate applications or software components. JMS is mainly used to send and receive message from one application to another.</t>
+  </si>
+  <si>
+    <t>What is the difference between an Array and ArrayList? When you would use each one? What are the benefits of one over the other / when would you use one over the other?</t>
+  </si>
+  <si>
+    <t>An Array is basic functionality provided by Java. ArrayList is part of collection framework in Java. while ArrayList has a set of methods to access elements and modify them. Array is a fixed size data structure while ArrayList is not.</t>
+  </si>
+  <si>
+    <t>"If two objects are equal using Object class equals method, then the hashcode method should give the same value for these two objects." ... Both methods, equals() and hashcode() , are used in Hashtable , for example, to store values as key-value pairs.
+If two objects are equal, they MUST have the same hash code.
+If two objects have the same hash code, it doesn't mean that they are equal.
+Overriding equals() alone will make your business fail with hashing data structures like: HashSet, HashMap, HashTable ... etc.
+Overriding hashcode() alone doesn't force Java to ignore memory addresses when comparing two objects.</t>
   </si>
 </sst>
 </file>
@@ -6450,16 +6474,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>179069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6488,7 +6512,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="365760"/>
+          <a:off x="3329940" y="7620"/>
           <a:ext cx="10058400" cy="5657849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6843,18 +6867,18 @@
   <sheetData>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" s="38" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="38" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -6919,14 +6943,53 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0F11CA-2C1E-4DAF-B653-8508FE8E9354}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8445,11 +8508,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9132,577 +9195,566 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
-        <v>135</v>
+        <v>680</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B86" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="14" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B87" s="14" t="s">
+    <row r="88" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B88" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B88" s="14" t="s">
+    <row r="89" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B89" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B89" s="14" t="s">
+    <row r="90" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B90" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C90" s="14" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="B90" s="14" t="s">
+    <row r="91" spans="2:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="B91" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C91" s="14" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B91" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B93" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C93" s="14" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="14" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C94" s="14" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B94" s="24" t="s">
+    <row r="95" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B95" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C95" s="14" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B95" s="14" t="s">
+    <row r="96" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B96" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C96" s="14" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B96" s="14" t="s">
+    <row r="97" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B97" s="14" t="s">
         <v>637</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C97" s="14" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="97" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="B97" s="14" t="s">
+    <row r="98" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B98" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C98" s="14" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B98" s="14" t="s">
+    <row r="99" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B99" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C99" s="14" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B99" s="14" t="s">
+    <row r="100" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B100" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C100" s="14" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B100" s="14" t="s">
+    <row r="101" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B101" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C101" s="14" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="14" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C103" s="14" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="103" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B103" s="14" t="s">
+    <row r="104" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B104" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C104" s="14" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="104" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B104" s="14" t="s">
+    <row r="105" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B105" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C105" s="14" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B105" s="14" t="s">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C106" s="14" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B106" s="14" t="s">
+    <row r="107" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B107" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C107" s="14" t="s">
         <v>645</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B107" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C107" s="21" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B108" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>428</v>
+        <v>255</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B109" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B110" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B111" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C111" s="14" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B111" s="14" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C114" s="14" t="s">
         <v>646</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B114" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B115" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B116" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C116" s="14" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B116" s="14" t="s">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="117" spans="2:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B117" s="14" t="s">
+    <row r="118" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B118" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C118" s="14" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="118" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B118" s="14" t="s">
+    <row r="119" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B119" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C119" s="14" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B119" s="14" t="s">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B120" s="14" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="120" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B120" s="14" t="s">
+    <row r="121" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B121" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C121" s="14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="B121" s="14" t="s">
+    <row r="122" spans="2:3" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B122" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C122" s="14" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B122" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B124" s="14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="124" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B124" s="14" t="s">
+    <row r="125" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B125" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C125" s="14" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B125" s="14" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B127" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B127" s="14" t="s">
+    <row r="128" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B128" s="14" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B128" s="14" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>463</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B137" s="14" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="137" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B137" s="14" t="s">
+    <row r="138" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B138" s="14" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B138" s="14" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B142" s="14" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B142" s="14" t="s">
+      <c r="C142" s="14" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B143" s="14" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B143" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="14" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B144" s="14" t="s">
-        <v>338</v>
+        <v>387</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="20"/>
       <c r="B145" s="14" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="20"/>
       <c r="B146" s="14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A147" s="20"/>
       <c r="B147" s="14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B148" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="20"/>
+        <v>399</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="B148" s="41"/>
+      <c r="C148" s="42"/>
+    </row>
+    <row r="149" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B149" s="14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="20"/>
+        <v>405</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B150" s="14" t="s">
-        <v>665</v>
+        <v>407</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A151" s="20"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B151" s="14" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="B152" s="41"/>
-      <c r="C152" s="42"/>
-    </row>
-    <row r="153" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B152" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B153" s="14" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B154" s="14" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B155" s="14" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B156" s="14" t="s">
-        <v>411</v>
+        <v>44</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B157" s="14" t="s">
-        <v>413</v>
-      </c>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="C157" s="14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="B158" s="14" t="s">
-        <v>415</v>
+        <v>669</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B159" s="14" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B160" s="14" t="s">
-        <v>44</v>
+        <v>426</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" ht="158.4" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B161" s="14" t="s">
+        <v>485</v>
+      </c>
       <c r="C161" s="14" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" ht="144" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="14" t="s">
-        <v>670</v>
+        <v>486</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B163" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B164" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B165" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B166" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="C166" s="14" t="s">
         <v>488</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A148:C148"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C62" r:id="rId1" location=":~:text=WeakHashMap%20is%20an%20implementation%20of,Garbage%20Collector%20dominates%20over%20WeakHashMap." xr:uid="{8DF82765-60D3-449F-AD2D-19DD872E3BA6}"/>
     <hyperlink ref="C63" r:id="rId2" xr:uid="{99F4FBAD-904D-4F81-8F65-67E23FAD25F1}"/>
     <hyperlink ref="C64" r:id="rId3" xr:uid="{35A27C47-788D-4C68-97AC-FC16766F27C7}"/>
-    <hyperlink ref="C107" r:id="rId4" xr:uid="{3F17D884-C7A9-4AD8-952F-91D16B01C812}"/>
+    <hyperlink ref="C108" r:id="rId4" xr:uid="{3F17D884-C7A9-4AD8-952F-91D16B01C812}"/>
     <hyperlink ref="D27" r:id="rId5" xr:uid="{DCE73648-524B-46C4-8889-34B6E79B566D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10683,7 +10735,7 @@
         <v>283</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -11437,7 +11489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8385B5A8-9213-481B-8B93-B8B0D707D64F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/TechStack.xlsx
+++ b/TechStack.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5405CF-4393-4340-979B-B406BB97D867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE81873-32C5-40E6-B19D-627C5D5771B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="979" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="685">
   <si>
     <t>Topic</t>
   </si>
@@ -5964,6 +5964,12 @@
 If two objects have the same hash code, it doesn't mean that they are equal.
 Overriding equals() alone will make your business fail with hashing data structures like: HashSet, HashMap, HashTable ... etc.
 Overriding hashcode() alone doesn't force Java to ignore memory addresses when comparing two objects.</t>
+  </si>
+  <si>
+    <t>What are the 2 benefits of using interface for a service in your code</t>
+  </si>
+  <si>
+    <t>Code maintainability: Interfaces helps to reduce coupling and therefore allow you to easily interchange implementations for the same concept without the underlying code being affected. You can change the implementation of a IMessage easily by defining a new class that implements the interface.</t>
   </si>
 </sst>
 </file>
@@ -8508,11 +8514,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9523,231 +9529,239 @@
         <v>277</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
-        <v>278</v>
+        <v>683</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>463</v>
+        <v>278</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" s="14" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B138" s="14" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B138" s="14" t="s">
+    <row r="139" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B139" s="14" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B139" s="14" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B142" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="142" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B142" s="14" t="s">
+    <row r="143" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B143" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="C143" s="14" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="143" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B143" s="14" t="s">
+    <row r="144" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B144" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C143" s="14" t="s">
+      <c r="C144" s="14" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="144" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B144" s="14" t="s">
+    <row r="145" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B145" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="C144" s="14" t="s">
+      <c r="C145" s="14" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="20"/>
-      <c r="B145" s="14" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="20"/>
       <c r="B146" s="14" t="s">
-        <v>665</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="B147" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A148" s="20"/>
+      <c r="B148" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="C147" s="14" t="s">
+      <c r="C148" s="14" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="40" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="B148" s="41"/>
-      <c r="C148" s="42"/>
-    </row>
-    <row r="149" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B149" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>406</v>
-      </c>
+      <c r="B149" s="41"/>
+      <c r="C149" s="42"/>
     </row>
     <row r="150" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B150" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B151" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="C150" s="14" t="s">
+      <c r="C151" s="14" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B151" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B152" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B153" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B154" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B155" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B156" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="C155" s="14" t="s">
+      <c r="C156" s="14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B156" s="14" t="s">
+    <row r="157" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B157" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C156" s="14" t="s">
+      <c r="C157" s="14" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="C157" s="14" t="s">
+    <row r="158" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="C158" s="14" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="B158" s="14" t="s">
+    <row r="159" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="B159" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="C158" s="14" t="s">
+      <c r="C159" s="14" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B159" s="14" t="s">
+    <row r="160" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B160" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="C159" s="14" t="s">
+      <c r="C160" s="14" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B160" s="14" t="s">
+    <row r="161" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B161" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="C160" s="14" t="s">
+      <c r="C161" s="14" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B161" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="C161" s="14" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B163" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="C162" s="14" t="s">
+      <c r="C163" s="14" t="s">
         <v>488</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A149:C149"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <hyperlinks>

--- a/TechStack.xlsx
+++ b/TechStack.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE81873-32C5-40E6-B19D-627C5D5771B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9529DD23-5A1E-4F2B-BB22-025ED1DDA427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="979" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="979" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About Author" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="704">
   <si>
     <t>Topic</t>
   </si>
@@ -1840,12 +1840,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>The 
-@Controller is a common annotation that is used to mark a class as Spring MVC Controller while @RestController is a special controller used in RESTFul web services and the equivalent of @Controller + @ResponseBody.
-@RestController was introduced in spring 4.0
-Read more: https://javarevisited.blogspot.com/2017/08/difference-between-restcontroller-and-controller-annotations-spring-mvc-rest.html#ixzz6OevuBwYh</t>
-  </si>
-  <si>
     <t>The Spring MVC @RequestMapping annotation is capable of handling HTTP request methods, such as GET, PUT, POST, DELETE, and PATCH. By default all requests are assumed to be of HTTP GET type</t>
   </si>
   <si>
@@ -2687,78 +2681,6 @@
     <t>What are checked and unchecked exceptions?</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ClassLoader always follows the Delegation Hierarchy Principle.
-Whenever JVM comes across a class, it checks whether that class is already loaded or not.
-If the Class is already loaded in the method area then the JVM proceeds with execution.
-If the class is not present in the method area then the JVM asks the Java ClassLoader Sub-System to load that particular class, then ClassLoader sub-system hands over the control to Application ClassLoader.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Application ClassLoader</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> then delegates the request to Extension ClassLoader and the Extension ClassLoader in turn delegates the request to Bootstrap ClassLoader.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bootstrap ClassLoader</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will search in the Bootstrap classpath(JDK/JRE/LIB). If the class is available then it is loaded, if not the request is delegated to Extension ClassLoader.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Extension ClassLoader</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> searches for the class in the Extension Classpath(JDK/JRE/LIB/EXT). If the class is available then it is loaded, if not the request is delegated to the Application ClassLoader.
-Application ClassLoader searches for the class in the Application Classpath. If the class is available then it is loaded, if not then a ClassNotFoundException exception is generated</t>
-    </r>
-  </si>
-  <si>
     <t>what are the different ways to test rest api?</t>
   </si>
   <si>
@@ -3863,18 +3785,7 @@
     <t>Creational patterns deal with the creation of objects.</t>
   </si>
   <si>
-    <t>Structural patterns deal with the composition of objects.
-It deals with questions such as:
-What does a class contain?
-What are the relationships of a class with other classes? Is it inheritance or composition?</t>
-  </si>
-  <si>
     <t>Behavioral patterns focus more on the behavior of objects, or more precisely, interactions between objects.</t>
-  </si>
-  <si>
-    <t>Prototype : A fully initialized instance to be copied or cloned
-                     Example : initial status of chess game
-                     java.lang.Object#clone()</t>
   </si>
   <si>
     <t>What is JIT compiler?</t>
@@ -4121,50 +4032,6 @@
   </si>
   <si>
     <t>https://www.tutorialspoint.com/what-is-deep-copy-explain-with-an-example-in-java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comparable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> interface is used to sort the objects with natural ordering. Comparable interface compares “this” reference with the object specified
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comparator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in Java is used to sort attributes of different objects. Comparator provides compare() method and uses equals() method to sort elements, 
-Based on the requirement we may have to write multiple classes to compare based on different methods.</t>
-    </r>
   </si>
   <si>
     <t>Marker/Tagging interface and uses  and example</t>
@@ -4649,75 +4516,6 @@
   <si>
     <t xml:space="preserve">CopyOnWriteArrayList can be used as a thread-safe alternative to ArrayList, with additional methods addIfAbsent() and addAllAbsent() that append elements if they are not contained in the list. A CopyOnWriteArrayList makes a new copy of its elements for every write operation and its iterator holds a different copy (snapshot) so it enables sequential writes and concurrent reads: only one thread can execute write operation and multiple threads can execute read operations at the same time. And its iterator doesn’t throw ConcurrentModification. 
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a) By Declaring a class as final,
-Ex:
-public </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>final class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ImmutableStudent {
-}
-b) Make all fields as private, so that direct access is allowed
-c) Don't provide setters methods for variables
-d) Make all mutable fields as final, so that its values can be assigned only once.
-e) Inialize the fileds via constructor by making use of deep copy
-f) Return a copy of the object rather than actual object by making use of getter methods.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Examples of Immutable classes in java:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-java.lang.String The wrapper classes for the primitive types:
-java.lang.Integer
-java.lang.Byte
-java.lang.Character
-java.lang.Short
-java.lang.Boolean
-java.lang.Long
-java.lang.Double
-java.lang.Float
-java.lang.StackTraceElement (used in building exception stacktraces)
-Most of the enum classes
-java.math.BigInteger
-java.math.BigDecimal</t>
-    </r>
   </si>
   <si>
     <t>TreeSet is implemented using a tree structure(red-black tree in algorithm book). The elements in a set are sorted, but the add, remove, and contains methods has time complexity of O(log (n))</t>
@@ -5970,6 +5768,359 @@
   </si>
   <si>
     <t>Code maintainability: Interfaces helps to reduce coupling and therefore allow you to easily interchange implementations for the same concept without the underlying code being affected. You can change the implementation of a IMessage easily by defining a new class that implements the interface.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The 
+@Controller is a common annotation that is used to mark a class as Spring MVC Controller while @RestController is a special controller used in RESTFul web services and the equivalent of @Controller + @ResponseBody.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if we use @Controller and if we don't provide @ResponseBody, then system will not process/format the response to client, it will show Whitelabel Error Page.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+@RestController was introduced in spring 4.0
+Read more: https://javarevisited.blogspot.com/2017/08/difference-between-restcontroller-and-controller-annotations-spring-mvc-rest.html#ixzz6OevuBwYh</t>
+    </r>
+  </si>
+  <si>
+    <t>How many ways we can create an Object</t>
+  </si>
+  <si>
+    <t>a) using new keyword
+b) using class.forName and newInstance() method
+c) using reflections, Contrustor class
+d) using deserialization
+e) using clone();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a) By Declaring a class as final,
+Ex:
+public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>final class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ImmutableStudent {
+ private final fields;
+ getterMethods();
+//don't provide the setter methods.
+}
+b) Make all fields as private, so that direct access is allowed
+c) Don't provide setters methods for variables
+d) Make all mutable fields as final, so that its values can be assigned only once.
+e) Inialize the fileds via constructor by making use of deep copy
+f) Return a copy of the object rather than actual object by making use of getter methods.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Examples of Immutable classes in java:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+java.lang.String The wrapper classes for the primitive types:
+java.lang.Integer
+java.lang.Byte
+java.lang.Character
+java.lang.Short
+java.lang.Boolean
+java.lang.Long
+java.lang.Double
+java.lang.Float
+java.lang.StackTraceElement (used in building exception stacktraces)
+Most of the enum classes
+java.math.BigInteger
+java.math.BigDecimal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comparable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface is used to sort the objects with natural ordering. Comparable interface compares “this” reference with the object specified
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comparator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Java is used to sort attributes of different objects. Comparator provides compare() method and uses equals() method to sort elements, 
+Based on the requirement we may have to write multiple classes to compare based on different methods.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ClassLoader always follows the Delegation Hierarchy Principle.
+Whenever JVM comes across a class, it checks whether that class is already loaded or not.
+If the Class is already loaded in the method area then the JVM proceeds with execution.
+If the class is not present in the method area then the JVM asks the Java ClassLoader Sub-System to load that particular class, then ClassLoader sub-system hands over the control to Application ClassLoader.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Application ClassLoader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> then delegates the request to Extension ClassLoader and the Extension ClassLoader in turn delegates the request to Bootstrap ClassLoader.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bootstrap ClassLoader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will search in the Bootstrap classpath(JDK/JRE/LIB). If the class is available then it is loaded, if not the request is delegated to Extension ClassLoader.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Extension ClassLoader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> searches for the class in the Extension Classpath(JDK/JRE/LIB/EXT). If the class is available then it is loaded, if not the request is delegated to the Application ClassLoader.
+Application ClassLoader searches for the class in the Application Classpath. If the class is available then it is loaded, if not then a ClassNotFoundException exception is generated</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Factory Desgin Pattern:
+</t>
+  </si>
+  <si>
+    <t>Abstract Factory Design Pattern</t>
+  </si>
+  <si>
+    <t>Builder Design Pattern</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prototype : A fully initialized instance to be copied or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cloned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                     Example : initial status of chess game
+                     java.lang.Object#clone()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Structural patterns deal with the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>composition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of objects.
+It deals with questions such as:
+What does a class contain?
+What are the relationships of a class with other classes? Is it inheritance or composition?</t>
+    </r>
+  </si>
+  <si>
+    <t>Composite Desgin Pattern</t>
+  </si>
+  <si>
+    <t>Proxy Desgin Pattern</t>
+  </si>
+  <si>
+    <t>Adapter Design Pattern</t>
+  </si>
+  <si>
+    <t>Below are the ways of creation of single ton pattern,
+   a) Eager loading
+   b) Lazy Loading
+   c) static block
+   d) Inner class
+   e)  Enum
+Example: 
+  Database connection, 
+  Logging, 
+  Cache Objects</t>
+  </si>
+  <si>
+    <t>FlyWeight Desgin Pattern</t>
+  </si>
+  <si>
+    <t>Façade</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>Decorator Design Pattern</t>
+  </si>
+  <si>
+    <t>Chain of Responsibility</t>
+  </si>
+  <si>
+    <t>Strategy Design Pattern</t>
+  </si>
+  <si>
+    <t>Observer Design Pattern</t>
+  </si>
+  <si>
+    <t>Command Desgin Pattern</t>
+  </si>
+  <si>
+    <t>Iterator Design Pattern</t>
+  </si>
+  <si>
+    <t>Singleton Design Pattern:</t>
   </si>
 </sst>
 </file>
@@ -6227,7 +6378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6316,9 +6467,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6329,9 +6477,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6347,10 +6492,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6872,19 +7035,19 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="38" t="s">
-        <v>670</v>
+      <c r="C7" s="37" t="s">
+        <v>664</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="38" t="s">
-        <v>672</v>
+      <c r="C8" s="37" t="s">
+        <v>666</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -6987,12 +7150,12 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -7035,10 +7198,10 @@
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -7046,23 +7209,23 @@
         <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="29" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="144" x14ac:dyDescent="0.3">
@@ -7070,7 +7233,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D7"/>
     </row>
@@ -7091,66 +7254,66 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -7175,14 +7338,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>620</v>
+      <c r="C1" s="37" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -7199,7 +7362,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -7369,7 +7532,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -8014,10 +8177,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>469</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -8028,7 +8191,7 @@
         <v>229</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -8039,7 +8202,7 @@
         <v>230</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -8050,7 +8213,7 @@
         <v>231</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -8079,7 +8242,7 @@
         <v>234</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -8090,7 +8253,7 @@
         <v>235</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -8370,10 +8533,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -8465,45 +8628,45 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="198.6" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="31" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -8514,11 +8677,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C157" sqref="C157"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8547,90 +8710,90 @@
     </row>
     <row r="2" spans="1:3" s="23" customFormat="1" ht="306.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
-      <c r="B2" s="43" t="s">
-        <v>492</v>
+      <c r="B2" s="41" t="s">
+        <v>491</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="23" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="44"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="22" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="23" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="35" t="s">
-        <v>585</v>
+      <c r="B4" s="34" t="s">
+        <v>581</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="23" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="14" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="23" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="23" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="23" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="23" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="23" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="23" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="23" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
@@ -8639,61 +8802,61 @@
         <v>44</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="23" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="14" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="23" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="14" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="23" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="14" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="23" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="14" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="23" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="14" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="23" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="37" t="s">
-        <v>613</v>
+      <c r="B18" s="36" t="s">
+        <v>608</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -8701,1075 +8864,1085 @@
         <v>1</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="C23" s="28" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
+    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>4</v>
-      </c>
       <c r="C28" s="14" t="s">
-        <v>450</v>
+        <v>584</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="14" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="19" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B37" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="45"/>
+      <c r="B38" s="46" t="s">
+        <v>623</v>
+      </c>
+      <c r="C38" s="46" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="216" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="E36" s="39" t="s">
+    <row r="39" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B39" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="C39" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="G36" s="39" t="s">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="H36" s="39" t="s">
+      <c r="C40" s="14" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B37" s="14" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C41" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B38" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="C42" s="14" t="s">
+    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B44" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B43" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="14" t="s">
+    <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B45" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B44" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="14" t="s">
+    <row r="46" spans="1:8" ht="216" x14ac:dyDescent="0.3">
+      <c r="B46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="360" x14ac:dyDescent="0.3">
+      <c r="B47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B48" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B50" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="216" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="360" x14ac:dyDescent="0.3">
-      <c r="B46" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B47" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="14" t="s">
+    <row r="51" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B53" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B54" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B49" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B52" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B53" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="14" t="s">
+    <row r="55" spans="2:3" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B56" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="360" x14ac:dyDescent="0.3">
-      <c r="B54" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="14" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="14" t="s">
+    <row r="58" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B58" s="14" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C57" s="14" t="s">
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="B60" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="B59" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="14" t="s">
+    <row r="61" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B61" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="14" t="s">
-        <v>475</v>
-      </c>
       <c r="C61" s="14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>477</v>
+        <v>474</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C65" s="21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="14" t="s">
+    <row r="67" spans="2:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="14" t="s">
+    <row r="68" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B69" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B68" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="14" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B72" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B71" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="14" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="2:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B74" s="14" t="s">
+    <row r="75" spans="2:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B75" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="14" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="14" t="s">
+    <row r="78" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C78" s="14" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B78" s="14" t="s">
+    <row r="79" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B79" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="14" t="s">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B80" s="14" t="s">
+    <row r="81" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B81" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B81" s="14" t="s">
+    <row r="82" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B82" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B82" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B84" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
-        <v>135</v>
+        <v>674</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B87" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="14" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B88" s="14" t="s">
+    <row r="89" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B89" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B89" s="14" t="s">
+    <row r="90" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B90" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B90" s="14" t="s">
+    <row r="91" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B91" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C90" s="14" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="B91" s="14" t="s">
+      <c r="C91" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="C91" s="14" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="2:3" ht="144" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>503</v>
+        <v>611</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B94" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C94" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C95" s="14" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C94" s="14" t="s">
+    <row r="96" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B96" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B97" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C97" s="14" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B95" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B96" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C96" s="14" t="s">
+    <row r="98" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B98" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B99" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B100" s="14" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B97" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="B98" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B99" s="14" t="s">
+      <c r="C100" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B101" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B102" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>507</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B100" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B101" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B102" s="14" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C104" s="14" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="104" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B104" s="14" t="s">
+    <row r="105" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B105" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C105" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="C104" s="14" t="s">
+    </row>
+    <row r="106" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B106" s="14" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B105" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="14" t="s">
+      <c r="C106" s="14" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="14" t="s">
         <v>253</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B107" s="14" t="s">
-        <v>254</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="108" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B108" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>512</v>
+        <v>254</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B109" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>428</v>
+        <v>255</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B110" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B111" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B112" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C111" s="14" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B112" s="14" t="s">
-        <v>259</v>
+      <c r="C112" s="14" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C114" s="14" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B115" s="14" t="s">
-        <v>262</v>
-      </c>
       <c r="C115" s="14" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B116" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B117" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C116" s="14" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B117" s="14" t="s">
+      <c r="C117" s="14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="118" spans="2:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B118" s="14" t="s">
+    <row r="119" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B119" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C118" s="14" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B119" s="14" t="s">
+      <c r="C119" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B120" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C119" s="14" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B120" s="14" t="s">
+      <c r="C120" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B121" s="14" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B121" s="14" t="s">
+    <row r="122" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B122" s="14" t="s">
         <v>268</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="B122" s="14" t="s">
-        <v>269</v>
       </c>
       <c r="C122" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" ht="374.4" x14ac:dyDescent="0.3">
       <c r="B123" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B125" s="14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="125" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B125" s="14" t="s">
+    <row r="126" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B126" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C125" s="14" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B126" s="14" t="s">
-        <v>273</v>
+      <c r="C126" s="14" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B128" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="128" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B128" s="14" t="s">
+    <row r="129" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B129" s="14" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B129" s="14" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B131" s="14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B131" s="14" t="s">
-        <v>683</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B132" s="14" t="s">
-        <v>278</v>
+        <v>677</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>463</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" s="14" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B139" s="14" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B139" s="14" t="s">
+    <row r="140" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B140" s="14" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B140" s="14" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B143" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="143" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B143" s="14" t="s">
+    <row r="144" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B144" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C143" s="14" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B144" s="14" t="s">
+      <c r="C144" s="14" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B145" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C144" s="14" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B145" s="14" t="s">
+      <c r="C145" s="14" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B146" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="C145" s="14" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="20"/>
-      <c r="B146" s="14" t="s">
-        <v>392</v>
+      <c r="C146" s="14" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="B147" s="14" t="s">
-        <v>665</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="20"/>
       <c r="B148" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A149" s="20"/>
+      <c r="B149" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="C148" s="14" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="B149" s="41"/>
-      <c r="C149" s="42"/>
-    </row>
-    <row r="150" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B150" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="C150" s="14" t="s">
-        <v>406</v>
-      </c>
+      <c r="C149" s="14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="B150" s="39"/>
+      <c r="C150" s="40"/>
     </row>
     <row r="151" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B151" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B152" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="C151" s="14" t="s">
+      <c r="C152" s="14" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B152" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B153" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B154" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B155" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B156" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B157" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="C156" s="14" t="s">
+      <c r="C157" s="14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B157" s="14" t="s">
+    <row r="158" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B158" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C157" s="14" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="C158" s="14" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="B159" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="C159" s="14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="B160" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="C160" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="C159" s="14" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B160" s="14" t="s">
+    </row>
+    <row r="161" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B161" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="C160" s="14" t="s">
+      <c r="C161" s="14" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="161" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B161" s="14" t="s">
+    <row r="162" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B162" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C162" s="14" t="s">
         <v>426</v>
-      </c>
-      <c r="C161" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B162" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="C163" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="C163" s="14" t="s">
-        <v>488</v>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B164" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A150:C150"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C62" r:id="rId1" location=":~:text=WeakHashMap%20is%20an%20implementation%20of,Garbage%20Collector%20dominates%20over%20WeakHashMap." xr:uid="{8DF82765-60D3-449F-AD2D-19DD872E3BA6}"/>
-    <hyperlink ref="C63" r:id="rId2" xr:uid="{99F4FBAD-904D-4F81-8F65-67E23FAD25F1}"/>
-    <hyperlink ref="C64" r:id="rId3" xr:uid="{35A27C47-788D-4C68-97AC-FC16766F27C7}"/>
-    <hyperlink ref="C108" r:id="rId4" xr:uid="{3F17D884-C7A9-4AD8-952F-91D16B01C812}"/>
-    <hyperlink ref="D27" r:id="rId5" xr:uid="{DCE73648-524B-46C4-8889-34B6E79B566D}"/>
+    <hyperlink ref="C63" r:id="rId1" location=":~:text=WeakHashMap%20is%20an%20implementation%20of,Garbage%20Collector%20dominates%20over%20WeakHashMap." xr:uid="{8DF82765-60D3-449F-AD2D-19DD872E3BA6}"/>
+    <hyperlink ref="C64" r:id="rId2" xr:uid="{99F4FBAD-904D-4F81-8F65-67E23FAD25F1}"/>
+    <hyperlink ref="C65" r:id="rId3" xr:uid="{35A27C47-788D-4C68-97AC-FC16766F27C7}"/>
+    <hyperlink ref="C109" r:id="rId4" xr:uid="{3F17D884-C7A9-4AD8-952F-91D16B01C812}"/>
+    <hyperlink ref="D28" r:id="rId5" xr:uid="{DCE73648-524B-46C4-8889-34B6E79B566D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId6"/>
@@ -9778,10 +9951,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51032E14-0A5D-4151-8C06-445604791B52}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9792,173 +9965,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="47" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>572</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="B2" s="13" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="48"/>
+      <c r="B7" s="11" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="48"/>
+      <c r="B9" s="11" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="48"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="48"/>
+      <c r="B11" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
+      <c r="B12" s="10" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="48"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="48"/>
+      <c r="B14" s="10" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="48"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="48"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="48"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="48"/>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="48"/>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="48"/>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="24" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="50" t="s">
+        <v>573</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="50"/>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="50"/>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
+      <c r="B27" s="10" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
+      <c r="B30" s="10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
+      <c r="B33" s="10" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="50"/>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="50"/>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="50"/>
+      <c r="B36" s="10" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="50"/>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
+      <c r="B39" s="10" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="50"/>
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="50"/>
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="50"/>
+      <c r="B42" s="10" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="50"/>
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
+      <c r="B45" s="10" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
+      <c r="B47" s="10"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="48" t="s">
+        <v>574</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
-        <v>574</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="13" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-    </row>
-    <row r="22" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
-        <v>575</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="45"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="45"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="45"/>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="48"/>
+      <c r="B50" s="10"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="48"/>
+      <c r="B51" s="10" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="48"/>
+      <c r="B52" s="10"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="48"/>
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="48"/>
+      <c r="B54" s="10" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="48"/>
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="48"/>
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="48"/>
+      <c r="B57" s="10" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="48"/>
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="48"/>
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="48"/>
+      <c r="B60" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="48"/>
+      <c r="B61" s="10"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="48"/>
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="48"/>
+      <c r="B63" s="10" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="48"/>
+      <c r="B64" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A6:A20"/>
-    <mergeCell ref="A22:A35"/>
-    <mergeCell ref="A37:A50"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="A24:A47"/>
+    <mergeCell ref="A49:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9970,8 +10272,8 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10012,7 +10314,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -10032,7 +10334,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -10120,7 +10422,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -10128,7 +10430,7 @@
         <v>174</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>424</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -10136,10 +10438,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -10150,7 +10452,7 @@
         <v>181</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -10169,7 +10471,7 @@
         <v>183</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -10218,7 +10520,7 @@
         <v>188</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -10226,7 +10528,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>374</v>
@@ -10289,10 +10591,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -10303,7 +10605,7 @@
         <v>194</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -10314,7 +10616,7 @@
         <v>195</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -10325,7 +10627,7 @@
         <v>196</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -10336,7 +10638,7 @@
         <v>197</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -10355,7 +10657,7 @@
         <v>199</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -10366,7 +10668,7 @@
         <v>200</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -10377,7 +10679,7 @@
         <v>201</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -10426,7 +10728,7 @@
         <v>206</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -10534,7 +10836,7 @@
         <v>400</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -10584,7 +10886,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>382</v>
@@ -10609,7 +10911,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -10683,7 +10985,7 @@
         <v>238</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -10694,7 +10996,7 @@
         <v>239</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -10705,7 +11007,7 @@
         <v>240</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -10716,7 +11018,7 @@
         <v>241</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -10727,7 +11029,7 @@
         <v>242</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -10749,7 +11051,7 @@
         <v>283</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -10840,7 +11142,7 @@
         <v>348</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -10955,7 +11257,7 @@
         <v>106</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -10984,7 +11286,7 @@
         <v>113</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -11057,10 +11359,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -11071,7 +11373,7 @@
         <v>141</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -11204,7 +11506,7 @@
         <v>165</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -11221,7 +11523,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>352</v>
@@ -11290,7 +11592,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>352</v>
@@ -11358,7 +11660,7 @@
         <v>394</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -11380,7 +11682,7 @@
         <v>395</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -11484,10 +11786,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/TechStack.xlsx
+++ b/TechStack.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9529DD23-5A1E-4F2B-BB22-025ED1DDA427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42324789-FA50-49D7-9E0F-36D7655E9A96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="979" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="979" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="About Author" sheetId="19" r:id="rId1"/>
-    <sheet name="SDLC" sheetId="17" r:id="rId2"/>
+    <sheet name="SDLC" sheetId="17" r:id="rId1"/>
+    <sheet name="Solid Principles" sheetId="19" r:id="rId2"/>
     <sheet name="Core Java" sheetId="1" r:id="rId3"/>
     <sheet name="Design Patterns" sheetId="18" r:id="rId4"/>
     <sheet name="Spring" sheetId="2" r:id="rId5"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="743">
   <si>
     <t>Topic</t>
   </si>
@@ -3691,9 +3691,6 @@
     </r>
   </si>
   <si>
-    <t>Requirements</t>
-  </si>
-  <si>
     <t>Analysis</t>
   </si>
   <si>
@@ -3701,9 +3698,6 @@
   </si>
   <si>
     <t>Implementation</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
   <si>
     <t xml:space="preserve">What are the different testing phases involved in your project?
@@ -5447,18 +5441,6 @@
     <t>Describe Some of the Functional Interfaces in the Standard Library.</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Rajendra</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Rajendra.lella@live.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">one to one (Every Citizen has a Unique Aadhaar)/(Every Tax payer has a Unique PAN card)
 one to many (Author to Books)
 many to one (Books to Author)
@@ -5929,84 +5911,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ClassLoader always follows the Delegation Hierarchy Principle.
-Whenever JVM comes across a class, it checks whether that class is already loaded or not.
-If the Class is already loaded in the method area then the JVM proceeds with execution.
-If the class is not present in the method area then the JVM asks the Java ClassLoader Sub-System to load that particular class, then ClassLoader sub-system hands over the control to Application ClassLoader.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Application ClassLoader</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> then delegates the request to Extension ClassLoader and the Extension ClassLoader in turn delegates the request to Bootstrap ClassLoader.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bootstrap ClassLoader</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will search in the Bootstrap classpath(JDK/JRE/LIB). If the class is available then it is loaded, if not the request is delegated to Extension ClassLoader.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Extension ClassLoader</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> searches for the class in the Extension Classpath(JDK/JRE/LIB/EXT). If the class is available then it is loaded, if not the request is delegated to the Application ClassLoader.
-Application ClassLoader searches for the class in the Application Classpath. If the class is available then it is loaded, if not then a ClassNotFoundException exception is generated</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Factory Desgin Pattern:
 </t>
   </si>
@@ -6122,12 +6026,306 @@
   <si>
     <t>Singleton Design Pattern:</t>
   </si>
+  <si>
+    <t>Requirements Planning</t>
+  </si>
+  <si>
+    <t>Test &amp; Integration</t>
+  </si>
+  <si>
+    <t>Why pointers are not used in java?</t>
+  </si>
+  <si>
+    <t>Java allocates memory implicitly and giving direct access to memory to the users can lead to memory management issues, hence pointers are discouraged in java.</t>
+  </si>
+  <si>
+    <t>What's the advantage of using getters and setters that only get and set instead of simply using public fields for those variables?</t>
+  </si>
+  <si>
+    <t>One advantage of accessors and mutators is that you can perform validation. For example, if foo was public, I could easily set it to null and then someone else could try to call a method on the object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question </t>
+  </si>
+  <si>
+    <t>What is SOLID Principle?</t>
+  </si>
+  <si>
+    <t>SOLID Principles is a coding standard that helps us to have a clear concept for developing software properly to avoid a bad design. It was promoted by Robert C Martin and is used across the object-oriented design spectrum. When applied properly it makes our code more extendable, logical, and easier to read.</t>
+  </si>
+  <si>
+    <t>Single Responsibility Principle</t>
+  </si>
+  <si>
+    <t>A class should have one and only one responsibility</t>
+  </si>
+  <si>
+    <t>Actual Implemenation</t>
+  </si>
+  <si>
+    <t>public class PrintStudent{
+ public void printDetails(){
+ }
+}</t>
+  </si>
+  <si>
+    <t>public class CalculateStudentPercentage{
+ public void calculatePercentageDetails(){(){
+ }
+}</t>
+  </si>
+  <si>
+    <t>public class AddStudent{
+ public void addStudent(){
+ }
+}</t>
+  </si>
+  <si>
+    <t>Open Closed Principle</t>
+  </si>
+  <si>
+    <t>A class should be open for extension and closed for modification</t>
+  </si>
+  <si>
+    <t>public interface Vehicle{
+  public String getVechicleNo();
+}</t>
+  </si>
+  <si>
+    <t>public class Car extends Vehicle{
+  public String getVehicleNo(){
+  }
+}</t>
+  </si>
+  <si>
+    <t>public class Bike extends Vehicle{
+  public String getVehicleNo(){
+  }
+}</t>
+  </si>
+  <si>
+    <t>public class Truck extends Vehicle{
+  public String getVehicleNo(){
+  }
+}</t>
+  </si>
+  <si>
+    <t>Liskov's Substitution Principle</t>
+  </si>
+  <si>
+    <t>So considering above example, we can code like given below
+Vehicle car = new Car();
+Vehicle bike = new Bike();
+Vehicle truck = new Truck();</t>
+  </si>
+  <si>
+    <t>Interface segregation Principle</t>
+  </si>
+  <si>
+    <t>This principle tells us that large interfaces should be split into smaller onces, Because the implementation classes consider only what is required. We should not force the clients to provide dummy implementation for the classes which are not required to implement.</t>
+  </si>
+  <si>
+    <t>public interface Conversion{
+ public void intToDouble();
+ public void intToChar();
+ public void intToString();
+}</t>
+  </si>
+  <si>
+    <t>So in the above example if any one who is required to implement intToDouble() only, he has to implement the other two methods also for sure</t>
+  </si>
+  <si>
+    <t>To over come the issue, below is the implemenation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public class Student{
+   public void printDetails(){
+   }
+  public void calculatePercentageDetails(){
+   }
+  public void addStudent(){
+   }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below code is violation of Single Responsibility </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class Vehicle{
+   public String getVehicleDetails(Vechicle vehicle){
+     if(vehicle instanceOf Car){
+       return vehicle.getVehicleNo();
+     } else if(vehicle instanceOf Bike){
+       return vehicle.getVechicleNo();
+     } else if (vehicle instanceOf Truck){
+       return vehicle.getVehicleNo();
+     }
+   }
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: If we want to add a new vehicle, it will against to open closed principle</t>
+    </r>
+  </si>
+  <si>
+    <t>Ex: Below one is the bad implementation</t>
+  </si>
+  <si>
+    <t>public interface IntToDouble{
+ public void intToDouble();
+}
+public interface IntToChar{
+  public void intToChar();
+}
+public interface IntToString{
+  public  void intToString();
+}</t>
+  </si>
+  <si>
+    <t>Now the fat or bulk implementation is splited to multiple interfaces, which allows the developers to concentrate only on the required ones.</t>
+  </si>
+  <si>
+    <t>Dependency Inversion Principle</t>
+  </si>
+  <si>
+    <t>This applies to inheritance in such a way that the derived classes must be completely substitutable for their base class and should not deviate the basic purpose of the class.
+It concentrates more on IS-A relationship.</t>
+  </si>
+  <si>
+    <t>This principle tells us that high level modules should not depend on low level modules, This also informs us  that we should not make use of the new keyword. Using the new keyword makes he code more tightly coupled.</t>
+  </si>
+  <si>
+    <t>public class WindowsMachine{
+ public final Keyboard keyboard;
+ public final Mouse mouse;
+ public WindowsMachine(){
+    keyboard = new Keyboard();
+    mouse = new Mouse(); 
+  }
+}</t>
+  </si>
+  <si>
+    <t>Violation</t>
+  </si>
+  <si>
+    <t>public class WindowsMachine{
+ public final Keyboard keyboard;
+ public final Mouse mouse;
+ public WindowsMachine(Keyboard kb,Mouse ms){
+   this.keyboard = kb;
+   this.mouse = ms;
+  }
+}</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ClassLoader always follows the Delegation Hierarchy Principle.
+Whenever JVM comes across a class, it checks whether that class is already loaded or not.
+If the Class is already loaded in the method area then the JVM proceeds with execution.
+If the class is not present in the method area then the JVM asks the Java ClassLoader Sub-System to load that particular class, then ClassLoader sub-system hands over the control to Application ClassLoader.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Application ClassLoader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> then delegates the request to Extension ClassLoader and the Extension ClassLoader in turn delegates the request to Bootstrap ClassLoader.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Extension ClassLoader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> searches for the class in the Extension Classpath(JDK/JRE/LIB/EXT). If the class is available then it is loaded, if not the request is delegated to the Application ClassLoader.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bootstrap ClassLoader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will search in the Bootstrap classpath(JDK/JRE/LIB). If the class is available then it is loaded, if not the request is delegated to Extension ClassLoader.
+Application ClassLoader searches for the class in the Application Classpath. If the class is available then it is loaded, if not then a ClassNotFoundException exception is generated</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6260,8 +6458,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6286,8 +6498,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -6373,12 +6595,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6477,6 +6710,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6492,32 +6743,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -6535,6 +6797,72 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22672</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>365759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121919</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Software Development Life Cycle (SDLC) phases | by Jilvan Pinheiro | Medium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328359CC-4C8C-4E7B-88F3-153F3E77AE45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8549452" y="365759"/>
+          <a:ext cx="4976047" cy="2796539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6639,7 +6967,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6694,7 +7022,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7022,39 +7350,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9AD4CB-F1AE-4B35-B8C1-FA2098014754}">
-  <dimension ref="C7:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADC389A-9F0E-41B8-8C1E-C0071BC3B5C1}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="31"/>
+    <col min="2" max="2" width="115.44140625" style="31" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="37" t="s">
-        <v>664</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="37" t="s">
-        <v>666</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>667</v>
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="198.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="31" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="31" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="31" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="31" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{3BBFB07B-82CD-4E96-979D-295F88C7C989}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7150,12 +7507,12 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -7198,10 +7555,10 @@
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -7209,23 +7566,23 @@
         <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="29" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="144" x14ac:dyDescent="0.3">
@@ -7233,7 +7590,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D7"/>
     </row>
@@ -7345,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -7362,7 +7719,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -7532,7 +7889,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -8533,10 +8890,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -8612,64 +8969,283 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADC389A-9F0E-41B8-8C1E-C0071BC3B5C1}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9AD4CB-F1AE-4B35-B8C1-FA2098014754}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="31"/>
-    <col min="2" max="2" width="115.44140625" style="31" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="4.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77" style="9" customWidth="1"/>
+    <col min="4" max="4" width="44" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="15.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>553</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="198.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
-        <v>560</v>
+    <row r="1" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>737</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>706</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
+        <v>726</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="52" t="s">
+        <v>725</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="13" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="13" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
+        <v>738</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>712</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="52" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="13" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="13" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="13" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="53" t="s">
+        <v>739</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>718</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="13" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="13" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="13" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="13" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="13" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="59" t="s">
+        <v>740</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>720</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54" t="s">
+        <v>728</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="59"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="59"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="53" t="s">
+        <v>741</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>731</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="56" t="s">
+        <v>735</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A3:A9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8677,11 +9253,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8702,7 +9278,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>343</v>
@@ -8710,90 +9286,90 @@
     </row>
     <row r="2" spans="1:3" s="23" customFormat="1" ht="306.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="47" t="s">
         <v>491</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="23" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="42"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="22" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="23" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="34" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="23" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="23" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="23" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="23" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="23" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="23" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="23" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="23" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
@@ -8802,61 +9378,61 @@
         <v>44</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="23" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="14" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="23" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="14" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="23" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="14" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="23" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="23" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="14" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="23" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="36" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -8864,1085 +9440,1101 @@
         <v>1</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="C22" s="14" t="s">
+      <c r="D30" s="35" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="14" t="s">
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
+    <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B37" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="44" t="s">
+      <c r="C37" s="14" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="38"/>
+      <c r="B38" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C38" s="39" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="19" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" s="19" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="B37" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="14" t="s">
+      <c r="E39" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="F39" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="G39" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="H39" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="G37" s="14" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="41" t="s">
         <v>621</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="C40" s="41" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B41" s="14" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46" t="s">
+      <c r="C41" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="C38" s="46" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B39" s="14" t="s">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>625</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="C43" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B44" s="14" t="s">
+    <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
+    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B47" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="216" x14ac:dyDescent="0.3">
-      <c r="B46" s="14" t="s">
+    <row r="48" spans="1:8" ht="216" x14ac:dyDescent="0.3">
+      <c r="B48" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="360" x14ac:dyDescent="0.3">
-      <c r="B47" s="14" t="s">
+    <row r="49" spans="2:3" ht="360" x14ac:dyDescent="0.3">
+      <c r="B49" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="14" t="s">
+    <row r="50" spans="2:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B50" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="C50" s="14" t="s">
-        <v>456</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B52" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B53" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="14" t="s">
+    <row r="54" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B53" s="14" t="s">
+      <c r="C54" s="14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B55" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B54" s="14" t="s">
+      <c r="C55" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B56" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="14" t="s">
+    <row r="57" spans="2:3" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B56" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="C57" s="14" t="s">
-        <v>439</v>
+        <v>676</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
-        <v>440</v>
+        <v>47</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B60" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="B60" s="14" t="s">
+      <c r="C61" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="B62" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B61" s="14" t="s">
+    <row r="63" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B63" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>477</v>
+        <v>474</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C67" s="21" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B71" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B69" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="14" t="s">
+    </row>
+    <row r="73" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B72" s="14" t="s">
+    <row r="74" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B74" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C74" s="14" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="14" t="s">
+    <row r="75" spans="2:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C75" s="14" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B75" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B77" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="14" t="s">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="14" t="s">
+    <row r="80" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B79" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="14" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B81" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B83" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B82" s="14" t="s">
+    <row r="84" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B84" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B83" s="14" t="s">
+    <row r="85" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B85" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="14" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B85" s="14" t="s">
-        <v>674</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B86" s="14" t="s">
+    <row r="87" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B87" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B88" s="14" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B87" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="14" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B89" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B91" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B92" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B93" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C93" s="14" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="B92" s="14" t="s">
+    <row r="94" spans="2:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="B94" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="C92" s="14" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B93" s="14" t="s">
+      <c r="C94" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B95" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C95" s="14" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B94" s="14" t="s">
+    <row r="96" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B96" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C96" s="14" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="14" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C97" s="14" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B96" s="24" t="s">
+    <row r="98" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B98" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="C96" s="14" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B97" s="14" t="s">
+      <c r="C98" s="14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B99" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C99" s="14" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B98" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="C98" s="14" t="s">
+    <row r="100" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B100" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B101" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B102" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B103" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B104" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B107" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="B108" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B110" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C110" s="14" t="s">
         <v>637</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="B99" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B100" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B101" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B102" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B103" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B105" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B106" s="14" t="s">
-        <v>510</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B108" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B109" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B110" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B111" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>428</v>
+        <v>255</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B112" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B113" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B114" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C114" s="14" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B114" s="14" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C117" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B118" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B119" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" s="14" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="116" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B116" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C116" s="14" t="s">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B120" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B121" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C121" s="14" t="s">
         <v>641</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B117" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B118" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B119" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B120" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B121" s="14" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B122" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B123" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B124" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C124" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="123" spans="2:3" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="B123" s="14" t="s">
+    <row r="125" spans="2:3" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B125" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C125" s="14" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B124" s="14" t="s">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B126" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C126" s="14" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B125" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B126" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B128" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="14" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B128" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B129" s="14" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B131" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B132" s="14" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B131" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B132" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B134" s="14" t="s">
-        <v>279</v>
+        <v>671</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>462</v>
+        <v>672</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138" s="14" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" s="14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B142" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B144" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B145" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="144" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B144" s="14" t="s">
+    <row r="146" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B146" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C144" s="14" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B145" s="14" t="s">
+      <c r="C146" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B147" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C145" s="14" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B146" s="14" t="s">
+      <c r="C147" s="14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B148" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="C146" s="14" t="s">
+      <c r="C148" s="14" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="20"/>
-      <c r="B147" s="14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="20"/>
-      <c r="B148" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="B149" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="20"/>
+      <c r="B150" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A151" s="20"/>
+      <c r="B151" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="C149" s="14" t="s">
+      <c r="C151" s="14" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="38" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="B150" s="39"/>
-      <c r="C150" s="40"/>
-    </row>
-    <row r="151" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B151" s="14" t="s">
+      <c r="B152" s="45"/>
+      <c r="C152" s="46"/>
+    </row>
+    <row r="153" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B153" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="C151" s="14" t="s">
+      <c r="C153" s="14" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B152" s="14" t="s">
+    <row r="154" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B154" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="C152" s="14" t="s">
+      <c r="C154" s="14" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B153" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B154" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B155" s="14" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B156" s="14" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B157" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B158" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B159" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="C157" s="14" t="s">
+      <c r="C159" s="14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B158" s="14" t="s">
+    <row r="160" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B160" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C158" s="14" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="C159" s="14" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="B160" s="14" t="s">
+      <c r="C160" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="C161" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="B162" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="C162" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="C160" s="14" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B161" s="14" t="s">
+    </row>
+    <row r="163" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B163" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="C161" s="14" t="s">
+      <c r="C163" s="14" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="162" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B162" s="14" t="s">
+    <row r="164" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B164" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="C162" s="14" t="s">
+      <c r="C164" s="14" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B163" s="14" t="s">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B165" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="C163" s="14" t="s">
+      <c r="C165" s="14" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B164" s="14" t="s">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B166" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="C164" s="14" t="s">
+      <c r="C166" s="14" t="s">
         <v>487</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A152:C152"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C63" r:id="rId1" location=":~:text=WeakHashMap%20is%20an%20implementation%20of,Garbage%20Collector%20dominates%20over%20WeakHashMap." xr:uid="{8DF82765-60D3-449F-AD2D-19DD872E3BA6}"/>
-    <hyperlink ref="C64" r:id="rId2" xr:uid="{99F4FBAD-904D-4F81-8F65-67E23FAD25F1}"/>
-    <hyperlink ref="C65" r:id="rId3" xr:uid="{35A27C47-788D-4C68-97AC-FC16766F27C7}"/>
-    <hyperlink ref="C109" r:id="rId4" xr:uid="{3F17D884-C7A9-4AD8-952F-91D16B01C812}"/>
-    <hyperlink ref="D28" r:id="rId5" xr:uid="{DCE73648-524B-46C4-8889-34B6E79B566D}"/>
+    <hyperlink ref="C65" r:id="rId1" location=":~:text=WeakHashMap%20is%20an%20implementation%20of,Garbage%20Collector%20dominates%20over%20WeakHashMap." xr:uid="{8DF82765-60D3-449F-AD2D-19DD872E3BA6}"/>
+    <hyperlink ref="C66" r:id="rId2" xr:uid="{99F4FBAD-904D-4F81-8F65-67E23FAD25F1}"/>
+    <hyperlink ref="C67" r:id="rId3" xr:uid="{35A27C47-788D-4C68-97AC-FC16766F27C7}"/>
+    <hyperlink ref="C111" r:id="rId4" xr:uid="{3F17D884-C7A9-4AD8-952F-91D16B01C812}"/>
+    <hyperlink ref="D30" r:id="rId5" xr:uid="{DCE73648-524B-46C4-8889-34B6E79B566D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId6"/>
@@ -9953,7 +10545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51032E14-0A5D-4151-8C06-445604791B52}">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A49" sqref="A49:B64"/>
     </sheetView>
   </sheetViews>
@@ -9965,111 +10557,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>575</v>
+      <c r="A1" s="42" t="s">
+        <v>573</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>570</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
-        <v>572</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>579</v>
-      </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="11" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49" t="s">
-        <v>703</v>
+      <c r="A8" s="49"/>
+      <c r="B8" s="43" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="11" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="11" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="10" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="10" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="10"/>
     </row>
     <row r="24" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -10083,7 +10675,7 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="50"/>
       <c r="B27" s="10" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -10097,7 +10689,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="50"/>
       <c r="B30" s="10" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -10111,7 +10703,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="50"/>
       <c r="B33" s="10" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -10125,7 +10717,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="50"/>
       <c r="B36" s="10" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -10139,7 +10731,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="50"/>
       <c r="B39" s="10" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -10153,7 +10745,7 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="50"/>
       <c r="B42" s="10" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -10167,7 +10759,7 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="50"/>
       <c r="B45" s="10" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -10179,81 +10771,81 @@
       <c r="B47" s="10"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="48" t="s">
-        <v>574</v>
+      <c r="A49" s="49" t="s">
+        <v>572</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="48"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="10"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="48"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="10" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="48"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="48"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="10"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="48"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="10" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="48"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="10"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="48"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="10"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="48"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="10" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="48"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="10"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="48"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="10"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="48"/>
+      <c r="A60" s="49"/>
       <c r="B60" s="10" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="48"/>
+      <c r="A61" s="49"/>
       <c r="B61" s="10"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="48"/>
+      <c r="A62" s="49"/>
       <c r="B62" s="10"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="48"/>
+      <c r="A63" s="49"/>
       <c r="B63" s="10" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="48"/>
+      <c r="A64" s="49"/>
       <c r="B64" s="10"/>
     </row>
   </sheetData>
@@ -10430,7 +11022,7 @@
         <v>174</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -11051,7 +11643,7 @@
         <v>283</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">

--- a/TechStack.xlsx
+++ b/TechStack.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42324789-FA50-49D7-9E0F-36D7655E9A96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EE7FAC-64FE-4DE5-8433-E6E5A91FD275}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="979" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="744">
   <si>
     <t>Topic</t>
   </si>
@@ -964,9 +964,6 @@
     <t>Difference between get and load method in Hibernate?</t>
   </si>
   <si>
-    <t>What are states of entity object?</t>
-  </si>
-  <si>
     <t>How do you represent composite primary key in Hibernate?</t>
   </si>
   <si>
@@ -1677,9 +1674,6 @@
   <si>
     <t>With Eager Loading, all the data is retrieved in a single query, which can then be cached to improve the Application performance. With Eager Loading, we are trading memory consumption for the database round trips. With Lazy Loading, we only retrieve just the amount of data, which we need in a single query.
 Lazy loading in hibernate improves the performance. It loads the child objects on demand. Since Hibernate 3, lazy loading is enabled by default, you don't need to do lazy="true". It means not to load the child objects when parent is loaded.</t>
-  </si>
-  <si>
-    <t>Error and Exception?</t>
   </si>
   <si>
     <t xml:space="preserve">first level cache is local to Session object and cannot be shared between multiple sessions, but the second-level cache is maintained at the SessionFactory level and shared among all sessions in Hibernate
@@ -6319,6 +6313,15 @@
       <t xml:space="preserve"> will search in the Bootstrap classpath(JDK/JRE/LIB). If the class is available then it is loaded, if not the request is delegated to Extension ClassLoader.
 Application ClassLoader searches for the class in the Application Classpath. If the class is available then it is loaded, if not then a ClassNotFoundException exception is generated</t>
     </r>
+  </si>
+  <si>
+    <t>Difference between Error and Exception?</t>
+  </si>
+  <si>
+    <t>What are states of entity object/Hibernate?</t>
+  </si>
+  <si>
+    <t>Can we start a thread without a run method?</t>
   </si>
 </sst>
 </file>
@@ -6728,6 +6731,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6747,33 +6777,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7366,46 +7369,46 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="198.6" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="31" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -7438,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -7446,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7454,7 +7457,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -7482,37 +7485,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -7547,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -7555,10 +7558,10 @@
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -7566,23 +7569,23 @@
         <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="29" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="144" x14ac:dyDescent="0.3">
@@ -7590,7 +7593,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D7"/>
     </row>
@@ -7606,71 +7609,71 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -7702,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -7719,7 +7722,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -7861,7 +7864,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C21" s="1"/>
     </row>
@@ -7880,7 +7883,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C24" s="1"/>
     </row>
@@ -7889,7 +7892,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -8058,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -8534,10 +8537,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -8548,7 +8551,7 @@
         <v>229</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -8559,7 +8562,7 @@
         <v>230</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -8570,7 +8573,7 @@
         <v>231</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -8599,7 +8602,7 @@
         <v>234</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -8610,7 +8613,7 @@
         <v>235</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -8645,13 +8648,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -8659,10 +8662,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -8670,10 +8673,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -8681,10 +8684,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -8692,10 +8695,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8703,10 +8706,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -8714,10 +8717,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -8725,10 +8728,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -8736,10 +8739,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -8747,10 +8750,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -8758,10 +8761,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -8769,10 +8772,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -8780,10 +8783,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -8791,10 +8794,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -8802,10 +8805,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -8813,10 +8816,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -8824,10 +8827,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -8835,10 +8838,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -8846,10 +8849,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8857,10 +8860,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8868,10 +8871,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -8879,10 +8882,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -8890,10 +8893,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -8972,7 +8975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9AD4CB-F1AE-4B35-B8C1-FA2098014754}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B25" sqref="B25:B27"/>
     </sheetView>
   </sheetViews>
@@ -8993,255 +8996,255 @@
         <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>704</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="44" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="51" t="s">
+        <v>723</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="13" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="13" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>736</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>710</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="13" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="13" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="13" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
         <v>737</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B15" s="49" t="s">
+        <v>716</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="13" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="13" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="13" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="13" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="13" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
+        <v>738</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>718</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="44" t="s">
+        <v>726</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>739</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>729</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="46" t="s">
+        <v>733</v>
+      </c>
+      <c r="D26" s="45" t="s">
         <v>706</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54" t="s">
-        <v>726</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="52" t="s">
-        <v>725</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-    </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="13" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="13" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
-        <v>738</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>712</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="52" t="s">
-        <v>727</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="13" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="13" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="13" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="53" t="s">
-        <v>739</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>718</v>
-      </c>
-      <c r="C15" s="13" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="13" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="13" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="13" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="13" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="13" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="13" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
-        <v>740</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>720</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54" t="s">
-        <v>728</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
-        <v>741</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>731</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="56" t="s">
-        <v>735</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>734</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>736</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B20"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B20"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="A3:A9"/>
@@ -9253,11 +9256,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9278,98 +9281,98 @@
         <v>63</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="23" customFormat="1" ht="306.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
-      <c r="B2" s="47" t="s">
-        <v>491</v>
+      <c r="B2" s="56" t="s">
+        <v>489</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="23" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="48"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="22" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="23" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="34" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="23" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="23" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="23" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="23" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="23" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="23" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="23" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="23" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
@@ -9378,61 +9381,61 @@
         <v>44</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="23" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="23" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="14" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="23" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="14" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="23" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="14" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="23" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="14" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="23" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="36" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -9440,63 +9443,63 @@
         <v>1</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -9504,7 +9507,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -9517,7 +9520,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -9525,10 +9528,10 @@
         <v>83</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -9536,7 +9539,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -9544,7 +9547,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -9557,15 +9560,15 @@
         <v>7</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -9578,7 +9581,7 @@
         <v>8</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -9587,7 +9590,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="19" customFormat="1" ht="216" x14ac:dyDescent="0.3">
@@ -9595,71 +9598,71 @@
         <v>18</v>
       </c>
       <c r="C39" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="F39" s="14" t="s">
         <v>616</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="G39" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="H39" s="14" t="s">
         <v>618</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="41" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -9667,7 +9670,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -9675,7 +9678,7 @@
         <v>20</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="216" x14ac:dyDescent="0.3">
@@ -9683,7 +9686,7 @@
         <v>22</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="360" x14ac:dyDescent="0.3">
@@ -9691,7 +9694,7 @@
         <v>24</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -9699,7 +9702,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9707,7 +9710,7 @@
         <v>35</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -9715,7 +9718,7 @@
         <v>36</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9723,7 +9726,7 @@
         <v>40</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -9731,7 +9734,7 @@
         <v>41</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -9739,7 +9742,7 @@
         <v>42</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -9747,7 +9750,7 @@
         <v>43</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="388.8" x14ac:dyDescent="0.3">
@@ -9755,7 +9758,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9763,7 +9766,7 @@
         <v>47</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
@@ -9771,23 +9774,23 @@
         <v>49</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="216" x14ac:dyDescent="0.3">
@@ -9795,7 +9798,7 @@
         <v>50</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9803,15 +9806,15 @@
         <v>12</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
@@ -9819,7 +9822,7 @@
         <v>13</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
@@ -9827,7 +9830,7 @@
         <v>14</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
@@ -9835,7 +9838,7 @@
         <v>15</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -9843,7 +9846,7 @@
         <v>21</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -9851,15 +9854,15 @@
         <v>45</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B70" s="14" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9867,7 +9870,7 @@
         <v>51</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
@@ -9875,7 +9878,7 @@
         <v>48</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -9883,7 +9886,7 @@
         <v>98</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9891,7 +9894,7 @@
         <v>99</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -9899,7 +9902,7 @@
         <v>100</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
@@ -9912,7 +9915,7 @@
         <v>119</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
@@ -9930,7 +9933,7 @@
         <v>122</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9955,10 +9958,10 @@
     </row>
     <row r="85" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
@@ -9968,10 +9971,10 @@
     </row>
     <row r="87" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -10004,15 +10007,15 @@
         <v>149</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="144" x14ac:dyDescent="0.3">
       <c r="B94" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -10020,455 +10023,455 @@
         <v>151</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B96" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B98" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B99" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B100" s="14" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B102" s="14" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="144" x14ac:dyDescent="0.3">
       <c r="B108" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B110" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B111" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B112" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B113" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B114" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B118" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B122" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B124" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="374.4" x14ac:dyDescent="0.3">
       <c r="B125" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B128" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B134" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="142" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B142" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B145" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B146" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B147" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B148" s="14" t="s">
-        <v>387</v>
+        <v>741</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="B149" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="20"/>
       <c r="B150" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A151" s="20"/>
       <c r="B151" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="44" t="s">
-        <v>472</v>
-      </c>
-      <c r="B152" s="45"/>
-      <c r="C152" s="46"/>
+      <c r="A152" s="53" t="s">
+        <v>470</v>
+      </c>
+      <c r="B152" s="54"/>
+      <c r="C152" s="55"/>
     </row>
     <row r="153" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B153" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B154" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B155" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B156" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B157" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B158" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B159" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -10476,52 +10479,57 @@
         <v>44</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="C161" s="14" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="144" x14ac:dyDescent="0.3">
       <c r="B162" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="C162" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B163" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="164" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B164" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C165" s="14" t="s">
         <v>484</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="C166" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="C166" s="14" t="s">
-        <v>487</v>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B167" s="14" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -10545,7 +10553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51032E14-0A5D-4151-8C06-445604791B52}">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A49" sqref="A49:B64"/>
     </sheetView>
   </sheetViews>
@@ -10558,294 +10566,294 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
+        <v>568</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
+      <c r="B7" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="43" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="11" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="10" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="58"/>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="58"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="58"/>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="24" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="59"/>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="59"/>
+      <c r="B27" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="59"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="59"/>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
+      <c r="B30" s="10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="59"/>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="59"/>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="59"/>
+      <c r="B33" s="10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="59"/>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="59"/>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="59"/>
+      <c r="B36" s="10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="59"/>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="59"/>
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="59"/>
+      <c r="B39" s="10" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="59"/>
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="59"/>
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="59"/>
+      <c r="B42" s="10" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="59"/>
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="59"/>
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="59"/>
+      <c r="B45" s="10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="59"/>
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="59"/>
+      <c r="B47" s="10"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="58" t="s">
+        <v>570</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
-        <v>570</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="11" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="43" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="11" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="11" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="10" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="10" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="24" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="50" t="s">
-        <v>571</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="10" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="10" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
-      <c r="B33" s="10" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
-      <c r="B36" s="10" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
-      <c r="B39" s="10" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
-      <c r="B40" s="10"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
-      <c r="B42" s="10" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="58"/>
+      <c r="B50" s="10"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="58"/>
+      <c r="B51" s="10" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="10"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="10" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="58"/>
+      <c r="B52" s="10"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="58"/>
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="58"/>
+      <c r="B54" s="10" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="58"/>
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="58"/>
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="58"/>
+      <c r="B57" s="10" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
-      <c r="B46" s="10"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="50"/>
-      <c r="B47" s="10"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="49" t="s">
-        <v>572</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="49"/>
-      <c r="B50" s="10"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="49"/>
-      <c r="B51" s="10" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="49"/>
-      <c r="B52" s="10"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="49"/>
-      <c r="B53" s="10"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="49"/>
-      <c r="B54" s="10" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="58"/>
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="58"/>
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="58"/>
+      <c r="B60" s="10" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="58"/>
+      <c r="B61" s="10"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="58"/>
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="58"/>
+      <c r="B63" s="10" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="49"/>
-      <c r="B55" s="10"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="49"/>
-      <c r="B56" s="10"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="49"/>
-      <c r="B57" s="10" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="49"/>
-      <c r="B58" s="10"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="49"/>
-      <c r="B59" s="10"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="49"/>
-      <c r="B60" s="10" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="49"/>
-      <c r="B61" s="10"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="49"/>
-      <c r="B62" s="10"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="49"/>
-      <c r="B63" s="10" t="s">
-        <v>695</v>
-      </c>
-    </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="49"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="10"/>
     </row>
   </sheetData>
@@ -10884,7 +10892,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -10895,7 +10903,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -10906,7 +10914,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -10926,7 +10934,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -10937,7 +10945,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -10948,7 +10956,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -10959,7 +10967,7 @@
         <v>79</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -10978,7 +10986,7 @@
         <v>124</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -10989,7 +10997,7 @@
         <v>147</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -11000,7 +11008,7 @@
         <v>150</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -11011,7 +11019,7 @@
         <v>172</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -11022,7 +11030,7 @@
         <v>174</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -11030,10 +11038,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -11044,7 +11052,7 @@
         <v>181</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -11063,7 +11071,7 @@
         <v>183</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -11090,7 +11098,7 @@
         <v>186</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
@@ -11101,7 +11109,7 @@
         <v>187</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -11112,7 +11120,7 @@
         <v>188</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -11120,10 +11128,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11134,7 +11142,7 @@
         <v>189</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11153,7 +11161,7 @@
         <v>192</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -11164,7 +11172,7 @@
         <v>191</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -11175,7 +11183,7 @@
         <v>193</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11183,10 +11191,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -11197,7 +11205,7 @@
         <v>194</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11208,7 +11216,7 @@
         <v>195</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -11219,7 +11227,7 @@
         <v>196</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -11230,7 +11238,7 @@
         <v>197</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11249,7 +11257,7 @@
         <v>199</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11260,7 +11268,7 @@
         <v>200</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11271,7 +11279,7 @@
         <v>201</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -11282,7 +11290,7 @@
         <v>202</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -11301,7 +11309,7 @@
         <v>204</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -11320,7 +11328,7 @@
         <v>206</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -11387,7 +11395,7 @@
         <v>224</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11398,7 +11406,7 @@
         <v>225</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11409,7 +11417,7 @@
         <v>226</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -11417,7 +11425,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11425,10 +11433,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -11441,9 +11449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11462,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -11478,10 +11486,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
@@ -11492,7 +11500,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -11503,7 +11511,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -11514,7 +11522,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -11525,7 +11533,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -11536,7 +11544,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -11547,7 +11555,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -11558,7 +11566,7 @@
         <v>236</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -11577,7 +11585,7 @@
         <v>238</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -11588,7 +11596,7 @@
         <v>239</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -11599,7 +11607,7 @@
         <v>240</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -11607,10 +11615,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>241</v>
+        <v>742</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -11618,10 +11626,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -11629,10 +11637,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -11640,10 +11648,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -11651,10 +11659,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -11662,7 +11670,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -11701,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11709,10 +11717,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11720,10 +11728,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -11731,10 +11739,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -11745,7 +11753,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11756,7 +11764,7 @@
         <v>74</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -11767,7 +11775,7 @@
         <v>75</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11778,7 +11786,7 @@
         <v>76</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -11807,7 +11815,7 @@
         <v>84</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -11818,7 +11826,7 @@
         <v>89</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11829,7 +11837,7 @@
         <v>104</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -11849,7 +11857,7 @@
         <v>106</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -11878,7 +11886,7 @@
         <v>113</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -11943,7 +11951,7 @@
         <v>140</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -11951,10 +11959,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -11965,7 +11973,7 @@
         <v>141</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -11976,7 +11984,7 @@
         <v>143</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -11996,7 +12004,7 @@
         <v>146</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -12007,7 +12015,7 @@
         <v>157</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -12015,7 +12023,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C32" s="11"/>
     </row>
@@ -12045,7 +12053,7 @@
         <v>160</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -12056,7 +12064,7 @@
         <v>161</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -12076,7 +12084,7 @@
         <v>163</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -12087,7 +12095,7 @@
         <v>164</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -12098,7 +12106,7 @@
         <v>165</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -12115,10 +12123,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -12147,7 +12155,7 @@
         <v>169</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -12158,7 +12166,7 @@
         <v>170</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -12184,10 +12192,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -12249,10 +12257,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -12260,10 +12268,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -12271,10 +12279,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -12282,7 +12290,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C59" s="11"/>
     </row>
@@ -12370,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -12378,10 +12386,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -12416,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -12424,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/TechStack.xlsx
+++ b/TechStack.xlsx
@@ -3,26 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EE7FAC-64FE-4DE5-8433-E6E5A91FD275}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3055FD94-5CEC-42C4-8FBF-38FAC910A414}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="979" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="979" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDLC" sheetId="17" r:id="rId1"/>
     <sheet name="Solid Principles" sheetId="19" r:id="rId2"/>
     <sheet name="Core Java" sheetId="1" r:id="rId3"/>
-    <sheet name="Design Patterns" sheetId="18" r:id="rId4"/>
-    <sheet name="Spring" sheetId="2" r:id="rId5"/>
-    <sheet name="Hibernate" sheetId="3" r:id="rId6"/>
-    <sheet name="WebServices" sheetId="5" r:id="rId7"/>
-    <sheet name="Microservices" sheetId="14" r:id="rId8"/>
-    <sheet name="Apache Camel" sheetId="11" r:id="rId9"/>
-    <sheet name="Angular Js" sheetId="12" r:id="rId10"/>
-    <sheet name="SystemDesign" sheetId="16" r:id="rId11"/>
-    <sheet name="SQL" sheetId="4" r:id="rId12"/>
-    <sheet name="Programs" sheetId="6" r:id="rId13"/>
-    <sheet name="Project &amp; Others" sheetId="9" r:id="rId14"/>
-    <sheet name="Learning Material" sheetId="10" r:id="rId15"/>
+    <sheet name="java8" sheetId="20" r:id="rId4"/>
+    <sheet name="Design Patterns" sheetId="18" r:id="rId5"/>
+    <sheet name="Spring" sheetId="2" r:id="rId6"/>
+    <sheet name="Hibernate" sheetId="3" r:id="rId7"/>
+    <sheet name="WebServices" sheetId="5" r:id="rId8"/>
+    <sheet name="Microservices" sheetId="14" r:id="rId9"/>
+    <sheet name="Apache Camel" sheetId="11" r:id="rId10"/>
+    <sheet name="Angular Js" sheetId="12" r:id="rId11"/>
+    <sheet name="SystemDesign" sheetId="16" r:id="rId12"/>
+    <sheet name="SQL" sheetId="4" r:id="rId13"/>
+    <sheet name="Programs" sheetId="6" r:id="rId14"/>
+    <sheet name="Project &amp; Others" sheetId="9" r:id="rId15"/>
+    <sheet name="Learning Material" sheetId="10" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="744">
   <si>
     <t>Topic</t>
   </si>
@@ -5475,247 +5476,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>a)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Functional Programming</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-b) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lambda expressions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-c) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Streams API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Streams are sequence of objects that supports various methods to acheive a desired result)
-Ex: 
-list.stream().map().collect(collector.toList());
-list.stream().filter().collect(collector.toList());
-list.stream().sorted().collect(collector.toList());
-Stream is a process of creation of the stream, perform operations on the stream and Consume the result
-d) In java 8 we can define the methods in the interfaces, they were introduced to provide backward compatibility.(i.e) it will not affect the existing code which was written in java 6/java 7
-we can define </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>default</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>static</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> methods
-interface I{
-  void add();
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>default</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> void show(){
-    define the methods in the interface.
-  }
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>static</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> void display(){
-  }
-}
-e) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Method Reference</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Method reference is used to refer method of functional interface. It is compact and easy form of lambda expression. Each time when you are using lambda expression to just referring a method, you can replace your lambda expression with method reference.
-(o) -&gt; o.toString(); (Lambda expression)
-Object::toString(); (Instead of lambda expression, we can make use of the method reference)
-Below are the types of the method references available as part of the java-8
-    i) Instance method reference
-   ii) Static method reference String::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>valueOf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  iii) Constructor reference
-f) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Optional classes: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it is wrapper class used for expressing optionality.</t>
-    </r>
-  </si>
-  <si>
     <t>System Design interview questions</t>
   </si>
   <si>
@@ -6322,6 +6082,268 @@
   </si>
   <si>
     <t>Can we start a thread without a run method?</t>
+  </si>
+  <si>
+    <r>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Functional Programming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lambda expressions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streams API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Streams are sequence of objects that supports various methods to acheive a desired result)
+Ex: 
+list.stream().map(Function&lt;&gt;).collect(collector.toList());
+list.stream().filter(Pridicate&lt;&gt;).collect(collector.toList());
+list.stream().sorted().collect(collector.toList());
+Stream is a process of creation of the stream, perform operations on the stream and Consume the result
+d) In java 8 we can define the methods in the interfaces, they were introduced to provide backward compatibility.(i.e) it will not affect the existing code which was written in java 6/java 7
+we can define </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> methods
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@FunctionalInterface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+interface I{
+    void add();  // Single Abstract Method
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> void show(){ // default method introduced as part of java-8
+         define the methods in the interface.
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> void display(){  // static methods introduced as part of java 8
+   }
+}
+e) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Method Reference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Method reference is used to refer method of functional interface. It is compact and easy form of lambda expression. Each time when you are using lambda expression to just referring a method, you can replace your lambda expression with method reference.
+(o) -&gt; o.toString(); (Lambda expression)
+Object::toString(); (Instead of lambda expression, we can make use of the method reference)
+Below are the types of the method references available as part of the java-8
+    i) Instance method reference
+   ii) Static method reference String::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valueOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  iii) Constructor reference
+f) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optional classes: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it is wrapper class used for expressing optionality.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6614,7 +6636,7 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6747,25 +6769,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6778,6 +6791,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7356,7 +7384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADC389A-9F0E-41B8-8C1E-C0071BC3B5C1}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A276" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7383,7 +7411,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7403,7 +7431,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -7419,6 +7447,45 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8385B5A8-9213-481B-8B93-B8B0D707D64F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE406AE7-19D9-4DA9-84B5-63D1C585050C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -7470,7 +7537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0F11CA-2C1E-4DAF-B653-8508FE8E9354}">
   <dimension ref="B1:B11"/>
   <sheetViews>
@@ -7510,12 +7577,12 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -7524,7 +7591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -7682,7 +7749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
@@ -8036,7 +8103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C63"/>
   <sheetViews>
@@ -8631,7 +8698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -9002,244 +9069,239 @@
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="47"/>
       <c r="B2" s="48" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="C2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>734</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="C3" s="9" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="44" t="s">
+        <v>723</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="49" t="s">
+        <v>722</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="13" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="13" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
         <v>735</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>704</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B10" s="51" t="s">
+        <v>709</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="44" t="s">
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="49" t="s">
         <v>724</v>
       </c>
-      <c r="D4" s="45" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="51" t="s">
-        <v>723</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-    </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="13" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="13" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="D11" s="13" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="13" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="13" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="13" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="51" t="s">
         <v>736</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>710</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B15" s="51" t="s">
+        <v>715</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="D10" s="45" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="51" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="13" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="13" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="13" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="13" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="52" t="s">
+        <v>737</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>717</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="52"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="44" t="s">
         <v>725</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="13" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="13" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="13" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
-        <v>737</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>716</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="D22" s="45" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="52"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="52"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="51" t="s">
+        <v>738</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>728</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="13" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="13" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="13" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="13" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="13" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>718</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="44" t="s">
-        <v>726</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="13" t="s">
-        <v>720</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="13" t="s">
-        <v>721</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
-        <v>739</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>729</v>
-      </c>
-      <c r="C25" s="13" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="46" t="s">
+        <v>732</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="13" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="46" t="s">
+      <c r="D27" s="13" t="s">
         <v>733</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>734</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B20"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="A21:A24"/>
@@ -9248,6 +9310,11 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="A3:A9"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9258,9 +9325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
+    <sheetView topLeftCell="C1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9281,7 +9348,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>342</v>
@@ -9289,7 +9356,7 @@
     </row>
     <row r="2" spans="1:3" s="23" customFormat="1" ht="306.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="53" t="s">
         <v>489</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -9298,7 +9365,7 @@
     </row>
     <row r="3" spans="1:3" s="23" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="57"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="22" t="s">
         <v>643</v>
       </c>
@@ -9448,18 +9515,18 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>697</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>699</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
@@ -9488,10 +9555,10 @@
     </row>
     <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>672</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
@@ -9581,7 +9648,7 @@
         <v>8</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -9758,7 +9825,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9971,10 +10038,10 @@
     </row>
     <row r="87" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="C87" s="14" t="s">
         <v>666</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -10124,7 +10191,7 @@
         <v>508</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.3">
@@ -10299,10 +10366,10 @@
     </row>
     <row r="134" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B134" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="C134" s="14" t="s">
         <v>669</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.3">
@@ -10368,7 +10435,7 @@
         <v>334</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -10376,12 +10443,12 @@
         <v>335</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B148" s="14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>429</v>
@@ -10411,106 +10478,6 @@
         <v>428</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="53" t="s">
-        <v>470</v>
-      </c>
-      <c r="B152" s="54"/>
-      <c r="C152" s="55"/>
-    </row>
-    <row r="153" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B153" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B154" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B155" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B156" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="C156" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B157" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B158" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B159" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B160" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C160" s="14" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="C161" s="14" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="B162" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B163" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B164" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" s="14" t="s">
         <v>482</v>
@@ -10529,12 +10496,11 @@
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A152:C152"/>
+  <mergeCells count="1">
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <hyperlinks>
@@ -10550,6 +10516,149 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78963A04-6EC4-4EB8-BCC6-83A9586D8A06}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="57.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51032E14-0A5D-4151-8C06-445604791B52}">
   <dimension ref="A1:B64"/>
   <sheetViews>
@@ -10581,7 +10690,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="55" t="s">
         <v>568</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -10589,197 +10698,197 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="55"/>
+      <c r="B8" s="43" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="55"/>
+      <c r="B9" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="55"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="55"/>
+      <c r="B11" s="11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
+      <c r="B12" s="10" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="55"/>
+      <c r="B14" s="10" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="55"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="55"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="55"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="55"/>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="55"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="55"/>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="55"/>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="55"/>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="24" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
+        <v>569</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="43" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="11" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="56"/>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="56"/>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="56"/>
+      <c r="B27" s="10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="56"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="56"/>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="56"/>
+      <c r="B30" s="10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="56"/>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="56"/>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="56"/>
+      <c r="B33" s="10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="56"/>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="56"/>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="56"/>
+      <c r="B36" s="10" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="11" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="10" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="10" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="24" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="59" t="s">
-        <v>569</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="10" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="10" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="10" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="10" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="56"/>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="56"/>
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="56"/>
+      <c r="B39" s="10" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="10" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="56"/>
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="56"/>
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="56"/>
+      <c r="B42" s="10" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="10"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
-      <c r="B42" s="10" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="56"/>
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="56"/>
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="56"/>
+      <c r="B45" s="10" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="10"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
-      <c r="B45" s="10" t="s">
-        <v>688</v>
-      </c>
-    </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="10"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="10"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="55" t="s">
         <v>570</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -10787,73 +10896,73 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="10"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="55"/>
+      <c r="B52" s="10"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="55"/>
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="55"/>
+      <c r="B54" s="10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="55"/>
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="55"/>
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="55"/>
+      <c r="B57" s="10" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="58"/>
-      <c r="B52" s="10"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="58"/>
-      <c r="B53" s="10"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="58"/>
-      <c r="B54" s="10" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="55"/>
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="55"/>
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="55"/>
+      <c r="B60" s="10" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="58"/>
-      <c r="B55" s="10"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="58"/>
-      <c r="B56" s="10"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="58"/>
-      <c r="B57" s="10" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="58"/>
-      <c r="B58" s="10"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="58"/>
-      <c r="B59" s="10"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="58"/>
-      <c r="B60" s="10" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="55"/>
+      <c r="B61" s="10"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="55"/>
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="55"/>
+      <c r="B63" s="10" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="58"/>
-      <c r="B61" s="10"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="58"/>
-      <c r="B62" s="10"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="58"/>
-      <c r="B63" s="10" t="s">
-        <v>693</v>
-      </c>
-    </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="58"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="10"/>
     </row>
   </sheetData>
@@ -10867,7 +10976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
@@ -11030,7 +11139,7 @@
         <v>174</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -11445,7 +11554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -11615,7 +11724,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>538</v>
@@ -11684,7 +11793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
@@ -12355,7 +12464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2A579C-C456-4994-AC03-9F2365E2E7CB}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -12399,43 +12508,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8385B5A8-9213-481B-8B93-B8B0D707D64F}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>